--- a/data/Pollen data.xlsx
+++ b/data/Pollen data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvebo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvebo\Documents\BIO299 project malformed pollen grains\BIO299-malformed-pollen-grains\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9923201-D97B-4CCF-8651-04AC2132F8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08374B17-3FEB-4E31-B0F5-4935AFB484A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CB6D78A-BBA7-4097-9F29-6300DFB048E3}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +232,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,7 +584,7 @@
   <dimension ref="A1:XFD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,6 +2011,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
